--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03008AEA-074A-4F6C-B0B1-F81B1485BA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5FA25-05D3-4C93-9AB3-2FDF5F53A7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="4095" windowWidth="13575" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -616,12 +616,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D34" si="0">35 * 1.1</f>
-        <v>38.5</v>
+        <f>46 * 1.1</f>
+        <v>50.6</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
-        <v>2695</v>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <v>3542</v>
       </c>
       <c r="F3" s="5">
         <v>44813</v>
@@ -636,12 +636,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
-        <v>2695</v>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
+        <v>3542</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -670,12 +670,12 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
+        <f>46 * 1.1</f>
+        <v>50.6</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>2675.75</v>
+        <v>3516.7000000000003</v>
       </c>
       <c r="F4" s="5">
         <v>44813</v>
@@ -690,12 +690,12 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
-        <v>2675.75</v>
+        <v>3516.7000000000003</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -724,12 +724,12 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" ref="D5:D38" si="3">46 * 1.1</f>
+        <v>50.6</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>2656.5</v>
+        <v>3491.4</v>
       </c>
       <c r="F5" s="5">
         <v>44813</v>
@@ -744,12 +744,12 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="3"/>
-        <v>2656.5</v>
+        <v>3491.4</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -778,12 +778,12 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>2637.25</v>
+        <v>3466.1</v>
       </c>
       <c r="F6" s="5">
         <v>44813</v>
@@ -798,12 +798,12 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>2637.25</v>
+        <v>3466.1</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -832,12 +832,12 @@
         <v>68</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>2618</v>
+        <v>3440.8</v>
       </c>
       <c r="F7" s="5">
         <v>44813</v>
@@ -852,12 +852,12 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>2618</v>
+        <v>3440.8</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -886,12 +886,12 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>2598.75</v>
+        <v>3415.5</v>
       </c>
       <c r="F8" s="5">
         <v>44813</v>
@@ -906,12 +906,12 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>2598.75</v>
+        <v>3415.5</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -940,12 +940,12 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>2579.5</v>
+        <v>3390.2000000000003</v>
       </c>
       <c r="F9" s="5">
         <v>44813</v>
@@ -960,12 +960,12 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="3"/>
-        <v>2579.5</v>
+        <v>3390.2000000000003</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -994,12 +994,12 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>2560.25</v>
+        <v>3364.9</v>
       </c>
       <c r="F10" s="5">
         <v>44813</v>
@@ -1014,12 +1014,12 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="3"/>
-        <v>2560.25</v>
+        <v>3364.9</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1048,12 +1048,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>2541</v>
+        <v>3339.6</v>
       </c>
       <c r="F11" s="5">
         <v>44813</v>
@@ -1068,12 +1068,12 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>2541</v>
+        <v>3339.6</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1102,12 +1102,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>2521.75</v>
+        <v>3314.3</v>
       </c>
       <c r="F12" s="5">
         <v>44813</v>
@@ -1122,12 +1122,12 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="3"/>
-        <v>2531.75</v>
+        <v>3324.3</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1156,12 +1156,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>2502.5</v>
+        <v>3289</v>
       </c>
       <c r="F13" s="5">
         <v>44813</v>
@@ -1176,12 +1176,12 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="3"/>
-        <v>2522.5</v>
+        <v>3309</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1210,12 +1210,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>2483.25</v>
+        <v>3263.7000000000003</v>
       </c>
       <c r="F14" s="5">
         <v>44813</v>
@@ -1230,12 +1230,12 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="3"/>
-        <v>2513.25</v>
+        <v>3293.7000000000003</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1264,12 +1264,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>2464</v>
+        <v>3238.4</v>
       </c>
       <c r="F15" s="5">
         <v>44813</v>
@@ -1284,12 +1284,12 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="3"/>
-        <v>2504</v>
+        <v>3278.4</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1318,12 +1318,12 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>2444.75</v>
+        <v>3213.1</v>
       </c>
       <c r="F16" s="5">
         <v>44813</v>
@@ -1338,12 +1338,12 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="3"/>
-        <v>2494.75</v>
+        <v>3263.1</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1372,12 +1372,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>2425.5</v>
+        <v>3187.8</v>
       </c>
       <c r="F17" s="5">
         <v>44813</v>
@@ -1392,12 +1392,12 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="3"/>
-        <v>2485.5</v>
+        <v>3247.8</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1426,12 +1426,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>2406.25</v>
+        <v>3162.5</v>
       </c>
       <c r="F18" s="5">
         <v>44813</v>
@@ -1446,12 +1446,12 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="3"/>
-        <v>2476.25</v>
+        <v>3232.5</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1480,12 +1480,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>2387</v>
+        <v>3137.2000000000003</v>
       </c>
       <c r="F19" s="5">
         <v>44813</v>
@@ -1500,12 +1500,12 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="3"/>
-        <v>2467</v>
+        <v>3217.2000000000003</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1534,12 +1534,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>2367.75</v>
+        <v>3111.9</v>
       </c>
       <c r="F20" s="5">
         <v>44813</v>
@@ -1554,12 +1554,12 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="3"/>
-        <v>2457.75</v>
+        <v>3201.9</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1588,12 +1588,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>2348.5</v>
+        <v>3086.6</v>
       </c>
       <c r="F21" s="5">
         <v>44813</v>
@@ -1608,12 +1608,12 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="3"/>
-        <v>2448.5</v>
+        <v>3186.6</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1642,12 +1642,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>2329.25</v>
+        <v>3061.3</v>
       </c>
       <c r="F22" s="5">
         <v>44813</v>
@@ -1662,12 +1662,12 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="3"/>
-        <v>2439.25</v>
+        <v>3171.3</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1696,12 +1696,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>2310</v>
+        <v>3036</v>
       </c>
       <c r="F23" s="5">
         <v>44813</v>
@@ -1716,12 +1716,12 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="3"/>
-        <v>2430</v>
+        <v>3156</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1750,12 +1750,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>2290.75</v>
+        <v>3010.7000000000003</v>
       </c>
       <c r="F24" s="5">
         <v>44813</v>
@@ -1770,12 +1770,12 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="3"/>
-        <v>2420.75</v>
+        <v>3140.7000000000003</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1804,12 +1804,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>2271.5</v>
+        <v>2985.4</v>
       </c>
       <c r="F25" s="5">
         <v>44813</v>
@@ -1824,12 +1824,12 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="3"/>
-        <v>2411.5</v>
+        <v>3125.4</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1858,12 +1858,12 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>2252.25</v>
+        <v>2960.1</v>
       </c>
       <c r="F26" s="5">
         <v>44813</v>
@@ -1878,12 +1878,12 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="3"/>
-        <v>2402.25</v>
+        <v>3110.1</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1912,12 +1912,12 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>2233</v>
+        <v>2934.8</v>
       </c>
       <c r="F27" s="5">
         <v>44813</v>
@@ -1932,12 +1932,12 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="3"/>
-        <v>2393</v>
+        <v>3094.8</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1966,12 +1966,12 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>2213.75</v>
+        <v>2909.5</v>
       </c>
       <c r="F28" s="5">
         <v>44813</v>
@@ -1986,12 +1986,12 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="3"/>
-        <v>2383.75</v>
+        <v>3079.5</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2020,12 +2020,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>2194.5</v>
+        <v>2884.2000000000003</v>
       </c>
       <c r="F29" s="5">
         <v>44813</v>
@@ -2040,12 +2040,12 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="3"/>
-        <v>2374.5</v>
+        <v>3064.2000000000003</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2074,12 +2074,12 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>2175.25</v>
+        <v>2858.9</v>
       </c>
       <c r="F30" s="5">
         <v>44813</v>
@@ -2094,12 +2094,12 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="3"/>
-        <v>2365.25</v>
+        <v>3048.9</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2128,12 +2128,12 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>2156</v>
+        <v>2833.6</v>
       </c>
       <c r="F31" s="5">
         <v>44813</v>
@@ -2148,12 +2148,12 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="3"/>
-        <v>2356</v>
+        <v>3033.6</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2182,12 +2182,12 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>2136.75</v>
+        <v>2808.3</v>
       </c>
       <c r="F32" s="5">
         <v>44813</v>
@@ -2202,12 +2202,12 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="3"/>
-        <v>2346.75</v>
+        <v>3018.3</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2236,12 +2236,12 @@
         <v>55</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>2117.5</v>
+        <v>2783</v>
       </c>
       <c r="F33" s="5">
         <v>44813</v>
@@ -2256,12 +2256,12 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="3"/>
-        <v>2337.5</v>
+        <v>3003</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2292,12 +2292,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>50.6</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>2098.25</v>
+        <v>2757.7000000000003</v>
       </c>
       <c r="F34" s="5">
         <v>44813</v>
@@ -2312,12 +2312,12 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="3"/>
-        <v>2328.25</v>
+        <v>2987.7000000000003</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2346,12 +2346,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>35*1.1/2</f>
-        <v>19.25</v>
+        <f>46 * 1.1 /2</f>
+        <v>25.3</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
-        <v>1039.5</v>
+        <f t="shared" si="0"/>
+        <v>1366.2</v>
       </c>
       <c r="F35" s="5">
         <v>44813</v>
@@ -2366,12 +2366,12 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="3"/>
-        <v>1279.5</v>
+        <v>1606.2</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2400,12 +2400,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>35*1.1/2</f>
-        <v>19.25</v>
+        <f t="shared" ref="D36:D38" si="4">46 * 1.1 /2</f>
+        <v>25.3</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>1029.875</v>
+        <f t="shared" si="0"/>
+        <v>1353.55</v>
       </c>
       <c r="F36" s="5">
         <v>44813</v>
@@ -2420,12 +2420,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="3"/>
-        <v>1279.875</v>
+        <v>1603.55</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2454,12 +2454,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>35*1.1/2</f>
-        <v>19.25</v>
+        <f t="shared" si="4"/>
+        <v>25.3</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>1020.25</v>
+        <f t="shared" si="0"/>
+        <v>1340.9</v>
       </c>
       <c r="F37" s="5">
         <v>44813</v>
@@ -2474,12 +2474,12 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>1280.25</v>
+        <v>1600.9</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2508,12 +2508,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>35*1.1/2</f>
-        <v>19.25</v>
+        <f t="shared" si="4"/>
+        <v>25.3</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>1010.625</v>
+        <f t="shared" si="0"/>
+        <v>1328.25</v>
       </c>
       <c r="F38" s="5">
         <v>44813</v>
@@ -2528,12 +2528,12 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>1280.625</v>
+        <v>1598.25</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2585,8 +2585,8 @@
         <v>6</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(K3:K38)-0.25</f>
-        <v>84572</v>
+        <f>SUM(K3:K38)-0.1</f>
+        <v>109963.99999999999</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
-        <v>2695</v>
+        <v>3542</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5FA25-05D3-4C93-9AB3-2FDF5F53A7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1A45B-AEA9-4317-A3C3-835F66C2CA5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -205,22 +197,30 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -239,6 +239,8 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,7 +511,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -724,7 +726,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D38" si="3">46 * 1.1</f>
+        <f t="shared" ref="D5:D34" si="3">46 * 1.1</f>
         <v>50.6</v>
       </c>
       <c r="E5" s="2">
@@ -940,7 +942,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f>46 * 1.1</f>
         <v>50.6</v>
       </c>
       <c r="E9" s="2">
@@ -994,7 +996,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f>46 * 1.1</f>
         <v>50.6</v>
       </c>
       <c r="E10" s="2">

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317762C7-F077-412B-9665-C0D3A686E314}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C5ABC-50B6-4616-9F7A-CE61FE5094B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="12075" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -147,12 +147,6 @@
     <t>Щепина</t>
   </si>
   <si>
-    <t>Санников</t>
-  </si>
-  <si>
-    <t>Ахмадуллина</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1736,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1781,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C5ABC-50B6-4616-9F7A-CE61FE5094B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B620CF-FE52-4B10-AB45-05368FD08901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="12075" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="21765" yWindow="2475" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -168,23 +174,23 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +203,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -552,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1736,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1781,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1826,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1871,7 +1883,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1916,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1961,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2006,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2051,7 +2063,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2096,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2141,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2186,7 +2198,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2262,6 +2274,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B620CF-FE52-4B10-AB45-05368FD08901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442783F-A3E8-4727-9E09-F3DA8A4928E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21765" yWindow="2475" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="15225" yWindow="2475" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f t="shared" si="3"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442783F-A3E8-4727-9E09-F3DA8A4928E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB307F-538E-45D9-96F1-D242EEDB5104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15225" yWindow="2475" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB307F-538E-45D9-96F1-D242EEDB5104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECED4E1-F43B-4068-8D34-55AF3B616187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="2475" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="21945" yWindow="2820" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,10 @@
     <t>Ахмадуллина</t>
   </si>
   <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>Мохамед</t>
+    <t>Майкал</t>
+  </si>
+  <si>
+    <t>Алаа</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECED4E1-F43B-4068-8D34-55AF3B616187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65CAD1D-2E9B-4279-9A25-DBA0E34861DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21945" yWindow="2820" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="15225" yWindow="2820" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,10 @@
     <t>Ахмадуллина</t>
   </si>
   <si>
-    <t>Майкал</t>
-  </si>
-  <si>
-    <t>Алаа</t>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_46.xlsx
+++ b/LR3/table_1_46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65CAD1D-2E9B-4279-9A25-DBA0E34861DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7693AD63-BCD5-4BC9-9CA6-07F7BE7F8832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="2820" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="15225" yWindow="930" windowWidth="13575" windowHeight="8805" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
